--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GameFramework_Devil\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CCA05-1E34-48F2-9BBB-F9DE3A7E207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD09335-A6B3-488B-9392-B792CF1AF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="735" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="11085" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,13 @@
   </si>
   <si>
     <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +561,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,6 +649,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -665,6 +675,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -679,6 +692,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -693,6 +709,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -707,6 +726,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -724,6 +746,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
@@ -732,6 +757,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
@@ -740,6 +768,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
@@ -748,6 +779,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" t="s">
         <v>36</v>
       </c>
